--- a/teaching/traditional_assets/database/data/nigeria/nigeria_broadcasting.xlsx
+++ b/teaching/traditional_assets/database/data/nigeria/nigeria_broadcasting.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0545</v>
+        <v>-0.133</v>
       </c>
       <c r="G2">
-        <v>-0.2165289256198347</v>
+        <v>-0.1591304347826087</v>
       </c>
       <c r="H2">
-        <v>-0.2165289256198347</v>
+        <v>-0.1591304347826087</v>
       </c>
       <c r="I2">
-        <v>-0.5735537190082645</v>
+        <v>-0.3695652173913043</v>
       </c>
       <c r="J2">
-        <v>-0.5735537190082645</v>
+        <v>-0.3695652173913043</v>
       </c>
       <c r="K2">
-        <v>-7.31</v>
+        <v>-3.72</v>
       </c>
       <c r="L2">
-        <v>-0.6041322314049586</v>
+        <v>-0.3234782608695652</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.224</v>
+        <v>0.273</v>
       </c>
       <c r="V2">
-        <v>0.02817610062893082</v>
+        <v>0.04340222575516693</v>
       </c>
       <c r="W2">
-        <v>-0.2503424657534247</v>
+        <v>-0.1917525773195876</v>
       </c>
       <c r="X2">
-        <v>0.1120938963230276</v>
+        <v>0.100397840228604</v>
       </c>
       <c r="Y2">
-        <v>-0.3624363620764522</v>
+        <v>-0.2921504175481917</v>
       </c>
       <c r="Z2">
-        <v>0.3725828303978322</v>
+        <v>0.5155563525508833</v>
       </c>
       <c r="AA2">
-        <v>-0.2136962680133022</v>
+        <v>-0.1905316955079351</v>
       </c>
       <c r="AB2">
-        <v>0.09704111813715968</v>
+        <v>0.08611495961164105</v>
       </c>
       <c r="AC2">
-        <v>-0.3107373861504619</v>
+        <v>-0.2766466551195761</v>
       </c>
       <c r="AD2">
-        <v>3.13</v>
+        <v>2.89</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>3.13</v>
+        <v>2.89</v>
       </c>
       <c r="AG2">
-        <v>2.906</v>
+        <v>2.617</v>
       </c>
       <c r="AH2">
-        <v>0.2824909747292418</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="AI2">
-        <v>0.1389258766089658</v>
+        <v>0.1731575793888556</v>
       </c>
       <c r="AJ2">
-        <v>0.2676860722181282</v>
+        <v>0.293813854271921</v>
       </c>
       <c r="AK2">
-        <v>0.1302788487402493</v>
+        <v>0.1594079308034355</v>
       </c>
       <c r="AL2">
-        <v>0.053</v>
+        <v>0.294</v>
       </c>
       <c r="AM2">
-        <v>0.053</v>
+        <v>0.294</v>
       </c>
       <c r="AN2">
-        <v>-0.886685552407932</v>
+        <v>-1.090566037735849</v>
       </c>
       <c r="AO2">
-        <v>-130.9433962264151</v>
+        <v>-14.45578231292517</v>
       </c>
       <c r="AP2">
-        <v>-0.8232294617563739</v>
+        <v>-0.9875471698113207</v>
       </c>
       <c r="AQ2">
-        <v>-130.9433962264151</v>
+        <v>-14.45578231292517</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0545</v>
+        <v>-0.133</v>
       </c>
       <c r="G3">
-        <v>-0.2165289256198347</v>
+        <v>-0.1591304347826087</v>
       </c>
       <c r="H3">
-        <v>-0.2165289256198347</v>
+        <v>-0.1591304347826087</v>
       </c>
       <c r="I3">
-        <v>-0.5735537190082645</v>
+        <v>-0.3695652173913043</v>
       </c>
       <c r="J3">
-        <v>-0.5735537190082645</v>
+        <v>-0.3695652173913043</v>
       </c>
       <c r="K3">
-        <v>-7.31</v>
+        <v>-3.72</v>
       </c>
       <c r="L3">
-        <v>-0.6041322314049586</v>
+        <v>-0.3234782608695652</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.224</v>
+        <v>0.273</v>
       </c>
       <c r="V3">
-        <v>0.02817610062893082</v>
+        <v>0.04340222575516693</v>
       </c>
       <c r="W3">
-        <v>-0.2503424657534247</v>
+        <v>-0.1917525773195876</v>
       </c>
       <c r="X3">
-        <v>0.1120938963230276</v>
+        <v>0.100397840228604</v>
       </c>
       <c r="Y3">
-        <v>-0.3624363620764522</v>
+        <v>-0.2921504175481917</v>
       </c>
       <c r="Z3">
-        <v>0.3725828303978322</v>
+        <v>0.5155563525508833</v>
       </c>
       <c r="AA3">
-        <v>-0.2136962680133022</v>
+        <v>-0.1905316955079351</v>
       </c>
       <c r="AB3">
-        <v>0.09704111813715968</v>
+        <v>0.08611495961164105</v>
       </c>
       <c r="AC3">
-        <v>-0.3107373861504619</v>
+        <v>-0.2766466551195761</v>
       </c>
       <c r="AD3">
-        <v>3.13</v>
+        <v>2.89</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>3.13</v>
+        <v>2.89</v>
       </c>
       <c r="AG3">
-        <v>2.906</v>
+        <v>2.617</v>
       </c>
       <c r="AH3">
-        <v>0.2824909747292418</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="AI3">
-        <v>0.1389258766089658</v>
+        <v>0.1731575793888556</v>
       </c>
       <c r="AJ3">
-        <v>0.2676860722181282</v>
+        <v>0.293813854271921</v>
       </c>
       <c r="AK3">
-        <v>0.1302788487402493</v>
+        <v>0.1594079308034355</v>
       </c>
       <c r="AL3">
-        <v>0.053</v>
+        <v>0.294</v>
       </c>
       <c r="AM3">
-        <v>0.053</v>
+        <v>0.294</v>
       </c>
       <c r="AN3">
-        <v>-0.886685552407932</v>
+        <v>-1.090566037735849</v>
       </c>
       <c r="AO3">
-        <v>-130.9433962264151</v>
+        <v>-14.45578231292517</v>
       </c>
       <c r="AP3">
-        <v>-0.8232294617563739</v>
+        <v>-0.9875471698113207</v>
       </c>
       <c r="AQ3">
-        <v>-130.9433962264151</v>
+        <v>-14.45578231292517</v>
       </c>
     </row>
   </sheetData>
